--- a/小鹿网进度.xlsx
+++ b/小鹿网进度.xlsx
@@ -1,115 +1,632 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9A274BB6-04F2-44C7-8D70-C8E3AB9B55E6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>页面编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>页面名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>制作人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>林志欣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>完成日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>小鹿网</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>张城</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="64" formatCode="&quot;¥&quot;#,##0;\\\-&quot;¥&quot;#,##0"/>
+  </numFmts>
+  <fonts count="23">
+    <font>
+      <sz val="11.0"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -121,30 +638,68 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
+    <cellStyle name="20% - 强调文字1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 强调文字2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 强调文字3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 强调文字4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 强调文字5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 强调文字6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 强调文字1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 强调文字2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 强调文字3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 强调文字4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 强调文字5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 强调文字6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 强调文字1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 强调文字2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 强调文字3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 强调文字4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 强调文字5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 强调文字6" xfId="47" builtinId="52"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="强调文字2" xfId="28" builtinId="33"/>
+    <cellStyle name="强调文字3" xfId="32" builtinId="37"/>
+    <cellStyle name="强调文字4" xfId="36" builtinId="41"/>
+    <cellStyle name="强调文字5" xfId="40" builtinId="45"/>
+    <cellStyle name="强调文字6" xfId="44" builtinId="49"/>
+    <cellStyle name="批注" xfId="9" builtinId="10"/>
+    <cellStyle name="标题" xfId="11" builtinId="15"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
     <cellStyle name="着色 1" xfId="1" builtinId="29"/>
+    <cellStyle name="解释性文本" xfId="48" builtinId="53"/>
+    <cellStyle name="警告文本" xfId="10" builtinId="11"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="货币" xfId="3" builtinId="4"/>
+    <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="链接的单元格" xfId="20" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -410,23 +965,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.25000000" defaultRowHeight="24.950000" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.25" style="1"/>
+    <col min="1" max="1" style="3" width="10.00499998" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="28.57642828" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="5" width="14.29071413" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="1" width="23.43357168" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="16384" style="1" width="8.29071413" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="24.750000" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -434,7 +989,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="24.750000" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -448,7 +1003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="24.750000" customHeight="1">
       <c r="A3" s="3">
         <v>25</v>
       </c>
@@ -456,7 +1011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="24.750000" customHeight="1">
       <c r="A4" s="3">
         <v>26</v>
       </c>
@@ -464,7 +1019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="24.750000" customHeight="1">
       <c r="A5" s="3">
         <v>27</v>
       </c>
@@ -472,7 +1027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="24.750000" customHeight="1">
       <c r="A6" s="3">
         <v>28</v>
       </c>
@@ -480,7 +1035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="24.750000" customHeight="1">
       <c r="A7" s="3">
         <v>29</v>
       </c>
@@ -488,7 +1043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="24.750000" customHeight="1">
       <c r="A8" s="3">
         <v>30</v>
       </c>
@@ -496,7 +1051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="24.750000" customHeight="1">
       <c r="A9" s="3">
         <v>31</v>
       </c>
@@ -504,7 +1059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="24.750000" customHeight="1">
       <c r="A10" s="3">
         <v>32</v>
       </c>
@@ -512,7 +1067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="24.750000" customHeight="1">
       <c r="A11" s="3">
         <v>33</v>
       </c>
@@ -520,7 +1075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="24.750000" customHeight="1">
       <c r="A12" s="3">
         <v>34</v>
       </c>
@@ -528,7 +1083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="24.750000" customHeight="1">
       <c r="A13" s="3">
         <v>35</v>
       </c>
@@ -536,7 +1091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="24.750000" customHeight="1">
       <c r="A14" s="3">
         <v>36</v>
       </c>
@@ -544,7 +1099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="24.750000" customHeight="1">
       <c r="A15" s="3">
         <v>37</v>
       </c>
@@ -552,7 +1107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="24.750000" customHeight="1">
       <c r="A16" s="3">
         <v>38</v>
       </c>
@@ -560,7 +1115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="24.750000" customHeight="1">
       <c r="A17" s="3">
         <v>39</v>
       </c>
@@ -568,7 +1123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="24.750000" customHeight="1">
       <c r="A18" s="3">
         <v>40</v>
       </c>
@@ -576,7 +1131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="24.750000" customHeight="1">
       <c r="A19" s="3">
         <v>41</v>
       </c>
@@ -584,7 +1139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="24.750000" customHeight="1">
       <c r="A20" s="3">
         <v>42</v>
       </c>
@@ -592,7 +1147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="24.750000" customHeight="1">
       <c r="A21" s="3">
         <v>43</v>
       </c>
@@ -600,7 +1155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="24.750000" customHeight="1">
       <c r="A22" s="3">
         <v>44</v>
       </c>
@@ -608,7 +1163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="24.750000" customHeight="1">
       <c r="A23" s="3">
         <v>45</v>
       </c>
@@ -616,7 +1171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="24.750000" customHeight="1">
       <c r="A24" s="3">
         <v>46</v>
       </c>
@@ -624,7 +1179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="24.750000" customHeight="1">
       <c r="A25" s="3">
         <v>47</v>
       </c>
@@ -632,7 +1187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="24.750000" customHeight="1">
       <c r="A26" s="3">
         <v>48</v>
       </c>
@@ -640,7 +1195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="24.750000" customHeight="1">
       <c r="A27" s="3">
         <v>49</v>
       </c>
@@ -648,7 +1203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="24.750000" customHeight="1">
       <c r="A28" s="3">
         <v>50</v>
       </c>
@@ -656,7 +1211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="24.750000" customHeight="1">
       <c r="A29" s="3">
         <v>51</v>
       </c>
@@ -664,7 +1219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="24.750000" customHeight="1">
       <c r="A30" s="3">
         <v>52</v>
       </c>
@@ -672,7 +1227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="24.750000" customHeight="1">
       <c r="A31" s="3">
         <v>53</v>
       </c>
@@ -680,7 +1235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="24.750000" customHeight="1">
       <c r="A32" s="3">
         <v>54</v>
       </c>
@@ -688,7 +1243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="24.750000" customHeight="1">
       <c r="A33" s="3">
         <v>55</v>
       </c>
@@ -696,7 +1251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="24.750000" customHeight="1">
       <c r="A34" s="3">
         <v>56</v>
       </c>
@@ -704,7 +1259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="24.750000" customHeight="1">
       <c r="A35" s="3">
         <v>57</v>
       </c>
@@ -712,7 +1267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="24.750000" customHeight="1">
       <c r="A36" s="3">
         <v>58</v>
       </c>
@@ -720,7 +1275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="24.750000" customHeight="1">
       <c r="A37" s="3">
         <v>59</v>
       </c>
@@ -728,7 +1283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="24.750000" customHeight="1">
       <c r="A38" s="3">
         <v>60</v>
       </c>
@@ -736,7 +1291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="24.750000" customHeight="1">
       <c r="A39" s="3">
         <v>61</v>
       </c>
@@ -744,7 +1299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="24.750000" customHeight="1">
       <c r="A40" s="3">
         <v>62</v>
       </c>
@@ -752,7 +1307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="24.750000" customHeight="1">
       <c r="A41" s="3">
         <v>63</v>
       </c>
@@ -764,8 +1319,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>